--- a/SuppXLS/Scen_UC_DH_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_DH_MinProd.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_011\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Model_Training_1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E06CA50-70D0-4273-9914-79AA5AD1B484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5389C8E4-563A-4E5D-977E-86E811DC96C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DH_Low" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -108,11 +100,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +155,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,7 +210,7 @@
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -234,7 +233,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -245,31 +244,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 4 2" xfId="6"/>
-    <cellStyle name="Normal 8" xfId="7"/>
-    <cellStyle name="Normal 9 2" xfId="8"/>
-    <cellStyle name="Normale_B2020" xfId="9"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="10"/>
-    <cellStyle name="Percent 2" xfId="11"/>
-    <cellStyle name="Percent 2 2" xfId="12"/>
-    <cellStyle name="Percent 3" xfId="13"/>
-    <cellStyle name="Percent 3 2" xfId="14"/>
-    <cellStyle name="Percent 4" xfId="15"/>
-    <cellStyle name="Percent 4 2" xfId="16"/>
-    <cellStyle name="Percent 5" xfId="17"/>
-    <cellStyle name="Percent 5 2" xfId="18"/>
-    <cellStyle name="Percent 5 3" xfId="19"/>
-    <cellStyle name="Percent 6" xfId="20"/>
-    <cellStyle name="Percent 7" xfId="21"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="22"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 9 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normale_B2020" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Percent 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Percent 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Percent 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Percent 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 4" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 5 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 6" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 7" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,45 +712,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -835,7 +835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>17</v>
       </c>
@@ -854,13 +854,13 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="8">
-        <v>-0.1</v>
+      <c r="L7" s="10">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>